--- a/Technology/Software/Bill Holdings.xlsx
+++ b/Technology/Software/Bill Holdings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BC9393-B134-2645-92DF-4F5CF03495DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508560C-A97D-C94B-AB82-B6EDC9156DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,9 +1610,6 @@
     <xf numFmtId="164" fontId="11" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="12" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1661,6 +1658,9 @@
     <xf numFmtId="10" fontId="19" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1694,8 +1694,11 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1733,6 +1736,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1750,7 +1754,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,6 +1766,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1889,11 +1894,11 @@
     <v>Powered by Refinitiv</v>
     <v>139.5</v>
     <v>51.940100000000001</v>
-    <v>1.8597999999999999</v>
-    <v>-6.17</v>
-    <v>-9.9212000000000009E-2</v>
-    <v>-0.37</v>
-    <v>-6.6049999999999998E-3</v>
+    <v>1.712</v>
+    <v>2.63</v>
+    <v>4.0170999999999998E-2</v>
+    <v>-0.11</v>
+    <v>-1.6150000000000001E-3</v>
     <v>USD</v>
     <v>BILL Holdings, Inc. is a provider of software-as-a-service, cloud-based payments, and spending and expense management products. It enables users to automate accounts payable and accounts receivable transactions, enable businesses to connect with their suppliers and/or customers to do business, eliminate expense reports, manage cash flows, and improve back-office efficiency. It offers financial automation software for small and midsize businesses (SMBs). Through its automated solutions, it helps SMBs simplify and control their finances. It is a partner of the United States financial institutions, accounting firms, and accounting software providers. Its artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Businesses on its platform generate and process invoices, streamline approvals, make, and receive payments, manage employee expenses, sync with their accounting system, and manage their cash.</v>
     <v>2521</v>
@@ -1901,24 +1906,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6220 America Center Dr., Suite 100, SAN JOSE, CA, 95002 US</v>
-    <v>59.139899999999997</v>
+    <v>68.11</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.041404571093</v>
+    <v>45261.913838517969</v>
     <v>0</v>
-    <v>51.940100000000001</v>
-    <v>5980454314</v>
+    <v>64.02</v>
+    <v>7271130000</v>
     <v>BILL HOLDINGS, INC.</v>
     <v>BILL HOLDINGS, INC.</v>
-    <v>54.32</v>
-    <v>62.19</v>
-    <v>56.02</v>
-    <v>55.65</v>
+    <v>65.739999999999995</v>
+    <v>65.47</v>
+    <v>68.099999999999994</v>
+    <v>68</v>
     <v>106755700</v>
     <v>BILL</v>
     <v>BILL HOLDINGS, INC. (XNYS:BILL)</v>
-    <v>20031483</v>
-    <v>3207913</v>
+    <v>2526283</v>
+    <v>4650516</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2080,9 +2085,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2526,8 +2531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9890,10 +9896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4A38F8-1645-6445-89AD-FC873F324421}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9901,7 +9907,7 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -9921,7 +9927,7 @@
       <c r="O1" s="118"/>
       <c r="P1" s="118"/>
     </row>
-    <row r="2" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="118"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -9939,10 +9945,10 @@
       <c r="O2" s="118"/>
       <c r="P2" s="118"/>
     </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5980454314</v>
+        <v>7271130000</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>194</v>
@@ -9962,15 +9968,15 @@
         <v>196</v>
       </c>
       <c r="G3" s="43">
-        <f>AVERAGE(Financials!C129:H129)</f>
-        <v>4.952172751378351E-2</v>
+        <f>AVERAGE(Financials!G129:L129)</f>
+        <v>2.9056508493482589E-3</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>197</v>
       </c>
       <c r="I3" s="44">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>10922647331.605936</v>
+        <v>9539863407.1316566</v>
       </c>
       <c r="J3" s="45" t="s">
         <v>198</v>
@@ -9988,8 +9994,11 @@
       </c>
       <c r="O3" s="121"/>
       <c r="P3" s="48"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+    </row>
+    <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49">
         <f>Financials!H56-Financials!H96-Financials!H105</f>
         <v>747956000</v>
@@ -10013,21 +10022,21 @@
       </c>
       <c r="G4" s="53">
         <f>A5*(1+(5*G3))</f>
-        <v>133189333.42971608</v>
+        <v>108306673.95188884</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>204</v>
       </c>
       <c r="I4" s="54">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>8667017174.5780468</v>
+        <v>7456245774.2764463</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="55" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-9.9212000000000009E-2</v>
+        <v>4.0170999999999998E-2</v>
       </c>
       <c r="L4" s="56" t="s">
         <v>206</v>
@@ -10038,8 +10047,11 @@
       </c>
       <c r="O4" s="123"/>
       <c r="P4" s="48"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+    </row>
+    <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>106755700</v>
@@ -10070,14 +10082,14 @@
       </c>
       <c r="I5" s="54">
         <f>I4+G5-G6</f>
-        <v>9414973174.5780468</v>
+        <v>8204201774.2764473</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="58" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>56.02</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>213</v>
@@ -10091,11 +10103,14 @@
         <v>-85273000</v>
       </c>
       <c r="P5" s="48"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+    </row>
+    <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>4.8820035216326527</v>
+        <v>5.9356163265306119</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>215</v>
@@ -10123,14 +10138,14 @@
       </c>
       <c r="I6" s="55">
         <f>N25</f>
-        <v>6.2536687540356434E-2</v>
+        <v>6.7977554552143674E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>70.68864249212811</v>
+        <v>75.749734295421675</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>219</v>
@@ -10144,18 +10159,21 @@
         <v>135046000</v>
       </c>
       <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+    </row>
+    <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>27.55969729953917</v>
+        <v>33.507511520737324</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C7" s="67">
         <f>F15/A3</f>
-        <v>7.0228778274720217E-3</v>
+        <v>5.7762686129941287E-3</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>222</v>
@@ -10182,7 +10200,7 @@
       </c>
       <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>0.26184652788518581</v>
+        <v>0.11233090007961355</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>225</v>
@@ -10196,8 +10214,11 @@
         <v>1777259000</v>
       </c>
       <c r="P7" s="48"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -10219,8 +10240,11 @@
         <v>-4.4591736150875513E-2</v>
       </c>
       <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="79"/>
       <c r="B9" s="80">
         <v>2020</v>
@@ -10260,8 +10284,11 @@
         <v>807000</v>
       </c>
       <c r="P9" s="48"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="85" t="s">
         <v>228</v>
       </c>
@@ -10304,8 +10331,11 @@
         <v>-222918000</v>
       </c>
       <c r="P10" s="48"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+    </row>
+    <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="89"/>
       <c r="B11" s="90"/>
       <c r="C11" s="90">
@@ -10354,8 +10384,11 @@
         <v>-3.6201652625629157E-3</v>
       </c>
       <c r="P11" s="48"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+    </row>
+    <row r="12" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="85" t="s">
         <v>135</v>
       </c>
@@ -10399,8 +10432,11 @@
         <v>-4.4753165605086284E-2</v>
       </c>
       <c r="P12" s="48"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+    </row>
+    <row r="13" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="89"/>
       <c r="B13" s="90"/>
       <c r="C13" s="90">
@@ -10446,48 +10482,51 @@
       </c>
       <c r="O13" s="123"/>
       <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+    </row>
+    <row r="14" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="96">
         <f>B12/B10</f>
         <v>-0.19727791878172588</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="96">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-0.4143285837198078</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="96">
         <f t="shared" si="2"/>
         <v>-0.5083829341126147</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="96">
         <f t="shared" si="2"/>
         <v>-0.21136680560961693</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="97">
         <f t="shared" si="2"/>
         <v>0.17714285714285713</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="96">
         <f t="shared" si="2"/>
         <v>0.17567567567567569</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="96">
         <f t="shared" si="2"/>
         <v>0.19301075268817205</v>
       </c>
-      <c r="I14" s="97">
+      <c r="I14" s="96">
         <f t="shared" si="2"/>
         <v>0.18999073215940684</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="98">
         <f t="shared" si="2"/>
         <v>0.19011406844106463</v>
       </c>
-      <c r="K14" s="99"/>
+      <c r="K14" s="98"/>
       <c r="L14" s="76"/>
       <c r="M14" s="76"/>
       <c r="N14" s="60" t="s">
@@ -10495,11 +10534,14 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+    </row>
+    <row r="15" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="85" t="s">
         <v>178</v>
       </c>
@@ -10538,14 +10580,17 @@
       <c r="N15" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="O15" s="100">
+      <c r="O15" s="99">
         <f>1.33</f>
         <v>1.33</v>
       </c>
       <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+    </row>
+    <row r="16" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="100"/>
       <c r="B16" s="90"/>
       <c r="C16" s="90">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -10592,81 +10637,87 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+    </row>
+    <row r="17" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="96">
         <f>B15/B10</f>
         <v>-0.10473350253807107</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="96">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-5.9929070572681681E-2</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="96">
         <f t="shared" si="4"/>
         <v>-3.6559967225321247E-2</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="98">
         <f t="shared" si="4"/>
         <v>0.17022621373532312</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="96">
         <f t="shared" si="4"/>
         <v>3.4285714285714287E-2</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="96">
         <f t="shared" si="4"/>
         <v>3.5810810810810813E-2</v>
       </c>
-      <c r="H17" s="97">
+      <c r="H17" s="96">
         <f t="shared" si="4"/>
         <v>5.6451612903225805E-2</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="96">
         <f t="shared" si="4"/>
         <v>7.8313253012048195E-2</v>
       </c>
-      <c r="J17" s="99">
+      <c r="J17" s="98">
         <f t="shared" si="4"/>
         <v>0.15209125475285171</v>
       </c>
-      <c r="K17" s="99"/>
+      <c r="K17" s="98"/>
       <c r="L17" s="76"/>
       <c r="M17" s="76"/>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="O17" s="103">
+      <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="104" t="s">
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+    </row>
+    <row r="18" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="104">
         <v>-3.597169219894561E-2</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="104">
         <v>-2.370618286503532E-2</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="104">
         <v>-4.0276860563193108E-2</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="104">
         <v>-3.6982263564485383E-2</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="76"/>
       <c r="M18" s="76"/>
       <c r="N18" s="122" t="s">
@@ -10674,8 +10725,11 @@
       </c>
       <c r="O18" s="123"/>
       <c r="P18" s="48"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+    </row>
+    <row r="19" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
@@ -10694,17 +10748,20 @@
       <c r="N19" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="O19" s="109">
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>1912305000</v>
       </c>
       <c r="P19" s="48"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+    </row>
+    <row r="20" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76"/>
       <c r="H20" s="76"/>
@@ -10716,24 +10773,27 @@
       <c r="N20" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="O20" s="109">
+      <c r="O20" s="108">
         <f>A3</f>
-        <v>5980454314</v>
+        <v>7271130000</v>
       </c>
       <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="str" cm="1">
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+    </row>
+    <row r="21" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="124" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="124" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2018</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76"/>
       <c r="H21" s="76"/>
@@ -10744,13 +10804,16 @@
       <c r="N21" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="109">
+      <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>7892759314</v>
+        <v>9183435000</v>
       </c>
       <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+    </row>
+    <row r="22" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="113" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>BILL Holdings, Inc. is a provider of software-as-a-service, cloud-based payments, and spending and expense management products. It enables users to automate accounts payable and accounts receivable transactions, enable businesses to connect with their suppliers and/or customers to do business, eliminate expense reports, manage cash flows, and improve back-office efficiency. It offers financial automation software for small and midsize businesses (SMBs). Through its automated solutions, it helps SMBs simplify and control their finances. It is a partner of the United States financial institutions, accounting firms, and accounting software providers. Its artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Businesses on its platform generate and process invoices, streamline approvals, make, and receive payments, manage employee expenses, sync with their accounting system, and manage their cash.</v>
@@ -10770,13 +10833,16 @@
       <c r="N22" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="O22" s="111">
+      <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>0.24228598946479923</v>
+        <v>0.20823417381404671</v>
       </c>
       <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+    </row>
+    <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="113"/>
       <c r="B23" s="113"/>
       <c r="C23" s="113"/>
@@ -10790,16 +10856,19 @@
       <c r="K23" s="76"/>
       <c r="L23" s="76"/>
       <c r="M23" s="76"/>
-      <c r="N23" s="102" t="s">
+      <c r="N23" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="O23" s="112">
+      <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.75771401053520082</v>
+        <v>0.79176582618595326</v>
       </c>
       <c r="P23" s="48"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+    </row>
+    <row r="24" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="113"/>
       <c r="B24" s="113"/>
       <c r="C24" s="113"/>
@@ -10818,8 +10887,11 @@
       </c>
       <c r="O24" s="115"/>
       <c r="P24" s="48"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+    </row>
+    <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="113"/>
       <c r="B25" s="113"/>
       <c r="C25" s="113"/>
@@ -10835,12 +10907,15 @@
       <c r="M25" s="76"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.2536687540356434E-2</v>
+        <v>6.7977554552143674E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="48"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+    </row>
+    <row r="26" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="113"/>
       <c r="B26" s="113"/>
       <c r="C26" s="113"/>
@@ -10857,8 +10932,11 @@
       <c r="N26" s="76"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+    </row>
+    <row r="27" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="113"/>
       <c r="B27" s="113"/>
       <c r="C27" s="113"/>
@@ -10875,8 +10953,11 @@
       <c r="N27" s="76"/>
       <c r="O27" s="48"/>
       <c r="P27" s="48"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+    </row>
+    <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="113"/>
       <c r="B28" s="113"/>
       <c r="C28" s="113"/>
@@ -10893,8 +10974,11 @@
       <c r="N28" s="76"/>
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+    </row>
+    <row r="29" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="113"/>
       <c r="B29" s="113"/>
       <c r="C29" s="113"/>
@@ -10911,8 +10995,11 @@
       <c r="N29" s="76"/>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+    </row>
+    <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="113"/>
       <c r="B30" s="113"/>
       <c r="C30" s="113"/>
@@ -10929,8 +11016,11 @@
       <c r="N30" s="76"/>
       <c r="O30" s="48"/>
       <c r="P30" s="48"/>
-    </row>
-    <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+    </row>
+    <row r="31" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -10947,8 +11037,11 @@
       <c r="N31" s="48"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
-    </row>
-    <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+    </row>
+    <row r="32" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -10965,8 +11058,11 @@
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
-    </row>
-    <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+    </row>
+    <row r="33" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="76"/>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
@@ -10983,8 +11079,11 @@
       <c r="N33" s="76"/>
       <c r="O33" s="76"/>
       <c r="P33" s="76"/>
-    </row>
-    <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+    </row>
+    <row r="34" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="76"/>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
@@ -11001,8 +11100,11 @@
       <c r="N34" s="76"/>
       <c r="O34" s="76"/>
       <c r="P34" s="76"/>
-    </row>
-    <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+    </row>
+    <row r="35" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="76"/>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
@@ -11019,8 +11121,11 @@
       <c r="N35" s="76"/>
       <c r="O35" s="76"/>
       <c r="P35" s="76"/>
-    </row>
-    <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+    </row>
+    <row r="36" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76"/>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
@@ -11037,8 +11142,11 @@
       <c r="N36" s="76"/>
       <c r="O36" s="76"/>
       <c r="P36" s="76"/>
-    </row>
-    <row r="37" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+    </row>
+    <row r="37" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="76"/>
       <c r="B37" s="76"/>
       <c r="C37" s="76"/>
@@ -11055,8 +11163,11 @@
       <c r="N37" s="76"/>
       <c r="O37" s="76"/>
       <c r="P37" s="76"/>
-    </row>
-    <row r="38" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+    </row>
+    <row r="38" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="76"/>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
@@ -11073,8 +11184,11 @@
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
       <c r="P38" s="76"/>
-    </row>
-    <row r="39" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+    </row>
+    <row r="39" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="76"/>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
@@ -11091,8 +11205,11 @@
       <c r="N39" s="76"/>
       <c r="O39" s="76"/>
       <c r="P39" s="76"/>
-    </row>
-    <row r="40" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+    </row>
+    <row r="40" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="76"/>
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
@@ -11109,8 +11226,11 @@
       <c r="N40" s="76"/>
       <c r="O40" s="76"/>
       <c r="P40" s="76"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="76"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
@@ -11127,8 +11247,11 @@
       <c r="N41" s="76"/>
       <c r="O41" s="76"/>
       <c r="P41" s="76"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="76"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
@@ -11145,8 +11268,11 @@
       <c r="N42" s="76"/>
       <c r="O42" s="76"/>
       <c r="P42" s="76"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="76"/>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
@@ -11163,8 +11289,11 @@
       <c r="N43" s="76"/>
       <c r="O43" s="76"/>
       <c r="P43" s="76"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="76"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
@@ -11181,8 +11310,11 @@
       <c r="N44" s="76"/>
       <c r="O44" s="76"/>
       <c r="P44" s="76"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="76"/>
       <c r="B45" s="76"/>
       <c r="C45" s="76"/>
@@ -11199,8 +11331,11 @@
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
       <c r="P45" s="76"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="76"/>
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
@@ -11217,8 +11352,11 @@
       <c r="N46" s="76"/>
       <c r="O46" s="76"/>
       <c r="P46" s="76"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -11235,8 +11373,11 @@
       <c r="N47" s="76"/>
       <c r="O47" s="76"/>
       <c r="P47" s="76"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
@@ -11253,8 +11394,11 @@
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="76"/>
@@ -11271,8 +11415,11 @@
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="76"/>
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
@@ -11289,8 +11436,11 @@
       <c r="N50" s="76"/>
       <c r="O50" s="76"/>
       <c r="P50" s="76"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="76"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
@@ -11307,8 +11457,11 @@
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
@@ -11325,8 +11478,11 @@
       <c r="N52" s="76"/>
       <c r="O52" s="76"/>
       <c r="P52" s="76"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="76"/>
       <c r="B53" s="76"/>
       <c r="C53" s="76"/>
@@ -11343,8 +11499,11 @@
       <c r="N53" s="76"/>
       <c r="O53" s="76"/>
       <c r="P53" s="76"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="76"/>
       <c r="B54" s="76"/>
       <c r="C54" s="76"/>
@@ -11361,8 +11520,11 @@
       <c r="N54" s="76"/>
       <c r="O54" s="76"/>
       <c r="P54" s="76"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="76"/>
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
@@ -11379,8 +11541,11 @@
       <c r="N55" s="76"/>
       <c r="O55" s="76"/>
       <c r="P55" s="76"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="76"/>
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
@@ -11397,8 +11562,11 @@
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
       <c r="P56" s="76"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="76"/>
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
@@ -11415,8 +11583,11 @@
       <c r="N57" s="76"/>
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="76"/>
       <c r="B58" s="76"/>
       <c r="C58" s="76"/>
@@ -11433,8 +11604,11 @@
       <c r="N58" s="76"/>
       <c r="O58" s="76"/>
       <c r="P58" s="76"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="76"/>
       <c r="B59" s="76"/>
       <c r="C59" s="76"/>
@@ -11451,8 +11625,11 @@
       <c r="N59" s="76"/>
       <c r="O59" s="76"/>
       <c r="P59" s="76"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="76"/>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
@@ -11469,8 +11646,11 @@
       <c r="N60" s="76"/>
       <c r="O60" s="76"/>
       <c r="P60" s="76"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="76"/>
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
@@ -11487,16 +11667,19 @@
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
       <c r="P61" s="76"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O62" s="48"/>
       <c r="P62" s="48"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O63" s="48"/>
       <c r="P63" s="48"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
     </row>
@@ -11694,8 +11877,8 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:BILL/explorer/revenue_proj/" xr:uid="{3406A9FC-D884-6541-A9DE-E3FDAF6068F8}"/>

--- a/Technology/Software/Bill Holdings.xlsx
+++ b/Technology/Software/Bill Holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508560C-A97D-C94B-AB82-B6EDC9156DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02759DA-BAA3-6A4F-A2E8-78CA8057BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1735,6 +1735,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1754,7 +1756,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1767,6 +1769,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1894,11 +1898,11 @@
     <v>Powered by Refinitiv</v>
     <v>139.5</v>
     <v>51.940100000000001</v>
-    <v>1.712</v>
-    <v>2.63</v>
-    <v>4.0170999999999998E-2</v>
-    <v>-0.11</v>
-    <v>-1.6150000000000001E-3</v>
+    <v>1.7111000000000001</v>
+    <v>1.61</v>
+    <v>2.3209E-2</v>
+    <v>-0.98</v>
+    <v>-1.3807E-2</v>
     <v>USD</v>
     <v>BILL Holdings, Inc. is a provider of software-as-a-service, cloud-based payments, and spending and expense management products. It enables users to automate accounts payable and accounts receivable transactions, enable businesses to connect with their suppliers and/or customers to do business, eliminate expense reports, manage cash flows, and improve back-office efficiency. It offers financial automation software for small and midsize businesses (SMBs). Through its automated solutions, it helps SMBs simplify and control their finances. It is a partner of the United States financial institutions, accounting firms, and accounting software providers. Its artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Businesses on its platform generate and process invoices, streamline approvals, make, and receive payments, manage employee expenses, sync with their accounting system, and manage their cash.</v>
     <v>2521</v>
@@ -1906,24 +1910,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6220 America Center Dr., Suite 100, SAN JOSE, CA, 95002 US</v>
-    <v>68.11</v>
+    <v>71.489999999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.913838517969</v>
+    <v>45269.039210566407</v>
     <v>0</v>
-    <v>64.02</v>
-    <v>7271130000</v>
+    <v>68.5</v>
+    <v>7577519586</v>
     <v>BILL HOLDINGS, INC.</v>
     <v>BILL HOLDINGS, INC.</v>
-    <v>65.739999999999995</v>
-    <v>65.47</v>
-    <v>68.099999999999994</v>
-    <v>68</v>
+    <v>68.73</v>
+    <v>69.37</v>
+    <v>70.98</v>
+    <v>70</v>
     <v>106755700</v>
     <v>BILL</v>
     <v>BILL HOLDINGS, INC. (XNYS:BILL)</v>
-    <v>2526283</v>
-    <v>4650516</v>
+    <v>1795355</v>
+    <v>4745361</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2531,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
@@ -9899,7 +9903,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9948,7 +9952,7 @@
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>7271130000</v>
+        <v>7577519586</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>194</v>
@@ -9976,7 +9980,7 @@
       </c>
       <c r="I3" s="44">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>9539863407.1316566</v>
+        <v>9248809431.5272636</v>
       </c>
       <c r="J3" s="45" t="s">
         <v>198</v>
@@ -10029,14 +10033,14 @@
       </c>
       <c r="I4" s="54">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>7456245774.2764463</v>
+        <v>7201798239.7365894</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="55" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.0170999999999998E-2</v>
+        <v>2.3209E-2</v>
       </c>
       <c r="L4" s="56" t="s">
         <v>206</v>
@@ -10082,14 +10086,14 @@
       </c>
       <c r="I5" s="54">
         <f>I4+G5-G6</f>
-        <v>8204201774.2764473</v>
+        <v>7949754239.7365894</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="58" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>68.099999999999994</v>
+        <v>70.98</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>213</v>
@@ -10110,7 +10114,7 @@
     <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>5.9356163265306119</v>
+        <v>6.1857302742857145</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>215</v>
@@ -10138,14 +10142,14 @@
       </c>
       <c r="I6" s="55">
         <f>N25</f>
-        <v>6.7977554552143674E-2</v>
+        <v>6.9330030047153463E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>75.749734295421675</v>
+        <v>73.400409685445311</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>219</v>
@@ -10166,14 +10170,14 @@
     <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>33.507511520737324</v>
+        <v>34.91944509677419</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C7" s="67">
         <f>F15/A3</f>
-        <v>5.7762686129941287E-3</v>
+        <v>5.5427108466466982E-3</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>222</v>
@@ -10200,7 +10204,7 @@
       </c>
       <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>0.11233090007961355</v>
+        <v>3.4099882860598951E-2</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>225</v>
@@ -10534,7 +10538,7 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
@@ -10689,7 +10693,7 @@
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
@@ -10775,7 +10779,7 @@
       </c>
       <c r="O20" s="108">
         <f>A3</f>
-        <v>7271130000</v>
+        <v>7577519586</v>
       </c>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
@@ -10806,7 +10810,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>9183435000</v>
+        <v>9489824586</v>
       </c>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
@@ -10835,7 +10839,7 @@
       </c>
       <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>0.20823417381404671</v>
+        <v>0.20151110093448465</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
@@ -10861,7 +10865,7 @@
       </c>
       <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.79176582618595326</v>
+        <v>0.79848889906551535</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -10907,7 +10911,7 @@
       <c r="M25" s="76"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.7977554552143674E-2</v>
+        <v>6.9330030047153463E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="48"/>
